--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
-  <si>
-    <t>[Insertar título]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Header</t>
   </si>
@@ -25,12 +22,6 @@
     <t>Nav</t>
   </si>
   <si>
-    <t>div 2 - Inicio Proposito Opciones [Ejemplos]</t>
-  </si>
-  <si>
-    <t>div 3 - Icono de redes sociales (Facebook, Twitter etcétera)</t>
-  </si>
-  <si>
     <t>Footer</t>
   </si>
   <si>
@@ -46,9 +37,6 @@
     <t>de usuario</t>
   </si>
   <si>
-    <t>div 1 - Información</t>
-  </si>
-  <si>
     <t xml:space="preserve">ContenidoPrincipal1 </t>
   </si>
   <si>
@@ -134,13 +122,31 @@
   </si>
   <si>
     <t>usuario</t>
+  </si>
+  <si>
+    <t>[Título de la página]</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Div 1 - INICIO</t>
+  </si>
+  <si>
+    <t>div 2 - Icono de redes sociales (Facebook, Twitter etcétera)</t>
+  </si>
+  <si>
+    <t>div 3 - Información</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +163,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -386,80 +399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -551,11 +490,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,15 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,9 +586,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -629,24 +604,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -656,13 +613,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,14 +637,68 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,7 +1032,7 @@
   <dimension ref="F1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,33 +1132,37 @@
         <v>10</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="19"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="41"/>
+      <c r="X3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="15"/>
       <c r="AB3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="6:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1158,293 +1173,293 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="19"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="15"/>
       <c r="AB4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC4" s="7"/>
       <c r="AD4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="27"/>
-      <c r="AC5" s="14"/>
+      <c r="G5" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="45"/>
+      <c r="AC5" s="11"/>
       <c r="AD5" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="6:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="30"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="46"/>
       <c r="AB6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD6" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
+      <c r="G7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="23"/>
       <c r="AB7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="1">
         <v>35</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="36"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
       <c r="AB8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="AC8" s="31"/>
       <c r="AD8" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="1">
         <v>40</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="36"/>
+      <c r="G9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
       <c r="AB9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC9" s="10"/>
       <c r="AD9" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="1">
         <v>45</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="36"/>
+      <c r="G10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="26"/>
     </row>
     <row r="11" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="1">
         <v>50</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="36"/>
+      <c r="G11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="1">
         <v>55</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="36"/>
+      <c r="G12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
       <c r="AB12" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
@@ -1456,28 +1471,28 @@
       <c r="F13" s="1">
         <v>60</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="36"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
       <c r="AB13" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
@@ -1489,30 +1504,30 @@
       <c r="F14" s="1">
         <v>65</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="36"/>
+      <c r="G14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="26"/>
       <c r="AB14" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
@@ -1524,28 +1539,28 @@
       <c r="F15" s="1">
         <v>70</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="36"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
       <c r="AB15" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
@@ -1557,28 +1572,28 @@
       <c r="F16" s="1">
         <v>75</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="36"/>
+      <c r="G16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
@@ -1590,30 +1605,30 @@
       <c r="F17" s="1">
         <v>80</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="36"/>
+      <c r="G17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
       <c r="AB17" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
@@ -1625,30 +1640,30 @@
       <c r="F18" s="1">
         <v>85</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="36"/>
+      <c r="G18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
       <c r="AB18" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
@@ -1660,30 +1675,30 @@
       <c r="F19" s="1">
         <v>90</v>
       </c>
-      <c r="G19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="36"/>
+      <c r="G19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
       <c r="AB19" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
@@ -1695,28 +1710,28 @@
       <c r="F20" s="1">
         <v>95</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="39"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="29"/>
       <c r="AB20" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
@@ -1728,30 +1743,30 @@
       <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="13"/>
+      <c r="G21" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="37"/>
       <c r="AB21" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
@@ -1772,5 +1787,6 @@
     <mergeCell ref="G21:Z21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Plantilla" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +170,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -542,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,6 +654,51 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,50 +708,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:AG29"/>
+  <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1051,7 @@
     <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="1">
         <v>5</v>
       </c>
@@ -1102,7 +1113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="6:33" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F2" s="1">
         <v>5</v>
       </c>
@@ -1127,7 +1138,8 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53"/>
       <c r="F3" s="1">
         <v>10</v>
       </c>
@@ -1148,14 +1160,14 @@
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="41"/>
-      <c r="X3" s="40" t="s">
+      <c r="W3" s="38"/>
+      <c r="X3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="42"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="15"/>
       <c r="AB3" s="1" t="s">
         <v>23</v>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" s="1">
         <v>15</v>
       </c>
@@ -1197,67 +1209,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="40" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="38" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="35" t="s">
         <v>41</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="45"/>
+      <c r="Z5" s="42"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="6:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="39" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="X6" s="19"/>
       <c r="Y6" s="19"/>
-      <c r="Z6" s="46"/>
+      <c r="Z6" s="43"/>
       <c r="AB6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="1">
         <v>30</v>
       </c>
@@ -1302,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="1">
         <v>35</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="1">
         <v>40</v>
       </c>
@@ -1374,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="1">
         <v>45</v>
       </c>
@@ -1403,7 +1415,7 @@
       <c r="Y10" s="25"/>
       <c r="Z10" s="26"/>
     </row>
-    <row r="11" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="1">
         <v>50</v>
       </c>
@@ -1432,7 +1444,7 @@
       <c r="Y11" s="25"/>
       <c r="Z11" s="26"/>
     </row>
-    <row r="12" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="1">
         <v>55</v>
       </c>
@@ -1467,7 +1479,7 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
     </row>
-    <row r="13" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="1">
         <v>60</v>
       </c>
@@ -1500,7 +1512,7 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
     </row>
-    <row r="14" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
         <v>65</v>
       </c>
@@ -1535,7 +1547,7 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
     </row>
-    <row r="15" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="1">
         <v>70</v>
       </c>
@@ -1568,7 +1580,7 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
     </row>
-    <row r="16" spans="6:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <v>75</v>
       </c>
@@ -1743,28 +1755,28 @@
       <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="37"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="52"/>
       <c r="AB21" s="8" t="s">
         <v>35</v>
       </c>
